--- a/documents/2014 TI公司推荐使用模拟器件清单.xlsx
+++ b/documents/2014 TI公司推荐使用模拟器件清单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Onedrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\______电子设计竞赛\2014江苏电设\design2014 files\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$G$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$1:$I$38</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="111">
   <si>
     <t>TS5A3159DBVR</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -160,299 +160,310 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>OPA2695ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dual, Ultra-Wideband, Current-Feedback Operational Amplifier with Disable</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-Pin High Frequency 4-Amp Sink Synchronous MOSFET Driver</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源类</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOSFET驱动器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>降压开关电源，MOS管内置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>降压线性电源</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS7A1601QDGNRQ1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>升压开关电源，MOS管外置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS40210DGQR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOS管</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流检测芯片</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>INA210AIDCKR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速放大器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流反馈</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压反馈</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>精密ADC/DAC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delta-Sigma</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiplying DAC, R-2R</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-String DAC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V CMOS 仪表放大器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>36V 仪表放大器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>36V 精密放大器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>High Voltage, Rail-to-Rail Input/Output,Precision Op Amps，GBW = 10MHz</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V CMOS 放大器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V 电压反馈</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>精密放大器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频功放</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>D类25W功放</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速比较器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLV3501AIDR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5ns Rail-to-Rail, High Speed Comparator in Microsized Packages</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1bit 数字缓冲器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN74AUP1G07DBVR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low-Power Single Buffer/Driver with Open-Drain Outputs</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V 2选一模拟开关</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Ohm SPDT Analog Switch</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5V 单通道模拟开关</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS5A3166DBVR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>12V 单通道模拟开关</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS12A4515DR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3V 参考源</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCA821ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>全差分放大器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wideband, &gt; 40dB Adjust Range, Linear in dB Variable Gain Amplifier</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>差分输入压控增益放大器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步整流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压采集</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥式驱动</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS28225DR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关管</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>运放</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC7811IDGSR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 位串行输入乘法数模转换器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位轨至轨DAC(IIC)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSD19535KCS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCC27211DDAR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>INA282AIDR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8GHz Current Feedback Amplifier</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC8571IDGKR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>引脚</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADS1118IDGSR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPA842IDR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS54340DDAR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>datasheet</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>TPS56528DDAR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>42 V Input, 3.5 A, Step-Down DC/DC Converter with Eco-mode™</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPA2695ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dual, Ultra-Wideband, Current-Feedback Operational Amplifier with Disable</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-Pin High Frequency 4-Amp Sink Synchronous MOSFET Driver</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>电源类</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOSFET驱动器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>降压开关电源，MOS管内置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPS56528DDAR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>降压线性电源</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPS7A1601QDGNRQ1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>升压开关电源，MOS管外置</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPS40210DGQR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOS管</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流检测芯片</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>INA210AIDCKR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>高速放大器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流反馈</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>电压反馈</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>精密ADC/DAC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Delta-Sigma</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Multiplying DAC, R-2R</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>R-String DAC</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5V CMOS 仪表放大器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>36V 仪表放大器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>36V 精密放大器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>High Voltage, Rail-to-Rail Input/Output,Precision Op Amps，GBW = 10MHz</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5V CMOS 放大器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5V 电压反馈</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>精密放大器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>音频功放</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>D类25W功放</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>高速比较器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLV3501AIDR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.5ns Rail-to-Rail, High Speed Comparator in Microsized Packages</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1bit 数字缓冲器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SN74AUP1G07DBVR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Low-Power Single Buffer/Driver with Open-Drain Outputs</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5V 2选一模拟开关</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-Ohm SPDT Analog Switch</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5V 单通道模拟开关</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS5A3166DBVR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>12V 单通道模拟开关</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS12A4515DR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>3V 参考源</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>VCA821ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>全差分放大器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wideband, &gt; 40dB Adjust Range, Linear in dB Variable Gain Amplifier</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>差分输入压控增益放大器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请成功（数量）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>用途</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步整流</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>电压采集</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥式驱动</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPS54340DDAR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPS28225DR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>开关管</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>运放</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAC7811IDGSR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 位串行输入乘法数模转换器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>16位轨至轨DAC(IIC)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSD19535KCS</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCC27211DDAR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>INA282AIDR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8GHz Current Feedback Amplifier</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAC8571IDGKR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADS1118IDGSR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPA842IDR</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +471,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +672,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -1042,7 +1070,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1169,8 +1197,11 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1246,6 +1277,27 @@
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1273,11 +1325,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1316,6 +1365,7 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1621,727 +1671,815 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
-    <col min="4" max="4" width="31.375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="21.875" style="23" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="108.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
+    <col min="5" max="5" width="31.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="108.125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25">
+    <row r="1" spans="1:10" ht="14.25">
       <c r="A1" s="14"/>
       <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>84</v>
+      <c r="C1" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>91</v>
-      </c>
+      <c r="C2" s="26"/>
       <c r="D2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="18">
-        <v>6</v>
+      <c r="E2" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="F2" s="18">
         <v>6</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="18">
+        <v>6</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="36"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="29"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="18">
+      <c r="E3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="18">
+        <v>8</v>
+      </c>
+      <c r="G3" s="18">
+        <v>20</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="36"/>
+      <c r="B4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="18">
+        <v>4</v>
+      </c>
+      <c r="G4" s="18">
         <v>6</v>
       </c>
-      <c r="F3" s="18">
+      <c r="H4" s="18"/>
+      <c r="I4" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="36"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="18">
+        <v>2</v>
+      </c>
+      <c r="G5" s="18">
+        <v>6</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="36"/>
+      <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="19">
+        <v>2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>6</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="36"/>
+      <c r="B7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="18">
+        <v>2</v>
+      </c>
+      <c r="G7" s="18">
+        <v>6</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="36"/>
+      <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="18">
+        <v>8</v>
+      </c>
+      <c r="G8" s="18">
         <v>20</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="36"/>
+      <c r="B9" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="37"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="29"/>
-      <c r="B4" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="18">
-        <v>4</v>
-      </c>
-      <c r="F4" s="18">
+      <c r="E10" s="8"/>
+      <c r="F10" s="18">
+        <v>2</v>
+      </c>
+      <c r="G10" s="18">
         <v>6</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="29"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="18">
-        <v>2</v>
-      </c>
-      <c r="F5" s="18">
-        <v>6</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="29"/>
-      <c r="B6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="19">
-        <v>2</v>
-      </c>
-      <c r="F6" s="19">
-        <v>6</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="29"/>
-      <c r="B7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="18">
-        <v>2</v>
-      </c>
-      <c r="F7" s="18">
-        <v>6</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="29"/>
-      <c r="B8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="18">
-        <v>6</v>
-      </c>
-      <c r="F8" s="18">
-        <v>20</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="29"/>
-      <c r="B9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="30"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="18">
-        <v>2</v>
-      </c>
-      <c r="F10" s="18">
-        <v>6</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.25">
+    <row r="11" spans="1:10" ht="14.25">
       <c r="A11" s="15"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="17"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="25" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="33"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="33"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="33"/>
+      <c r="B15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="33"/>
+      <c r="B16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="33"/>
+      <c r="B17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="26"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="26"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="26"/>
-      <c r="B15" s="2" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="20">
+        <v>10</v>
+      </c>
+      <c r="G17" s="20">
+        <v>20</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="34"/>
+      <c r="B18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="26"/>
-      <c r="B16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="26"/>
-      <c r="B17" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="20">
-        <v>8</v>
-      </c>
-      <c r="F17" s="20">
-        <v>20</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="27"/>
-      <c r="B18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="J18" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="14.25">
+    <row r="19" spans="1:10" s="1" customFormat="1" ht="14.25">
       <c r="A19" s="15"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="25" t="s">
-        <v>52</v>
+      <c r="E19" s="11"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="32" t="s">
+        <v>50</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>105</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="22">
-        <v>6</v>
+        <v>104</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="F20" s="22">
         <v>8</v>
       </c>
-      <c r="G20" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="8" t="s">
+      <c r="G20" s="22">
+        <v>8</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="26"/>
+    <row r="21" spans="1:10">
+      <c r="A21" s="33"/>
       <c r="B21" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="33"/>
+      <c r="B22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="22">
+        <v>2</v>
+      </c>
+      <c r="G22" s="22">
+        <v>4</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="26"/>
-      <c r="B22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="22">
-        <v>4</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="8" t="s">
+      <c r="J22" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="27"/>
+    <row r="23" spans="1:10">
+      <c r="A23" s="34"/>
       <c r="B23" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="18"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="18"/>
-      <c r="G23" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H23" s="8" t="s">
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="14.25">
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="14.25">
       <c r="A24" s="15"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="11"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:8" s="1" customFormat="1">
-      <c r="A25" s="25" t="s">
-        <v>62</v>
+      <c r="E24" s="11"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1">
+      <c r="A25" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="1" customFormat="1">
+      <c r="A26" s="33"/>
+      <c r="B26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="33"/>
+      <c r="B27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="1" customFormat="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="8" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="26"/>
-      <c r="B27" s="3" t="s">
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="33"/>
+      <c r="B28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="26"/>
-      <c r="B28" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="18"/>
+      <c r="E28" s="8"/>
       <c r="F28" s="18"/>
-      <c r="G28" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="8" t="s">
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="26"/>
+    <row r="29" spans="1:10">
+      <c r="A29" s="33"/>
       <c r="B29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="18"/>
+      <c r="E29" s="8"/>
       <c r="F29" s="18"/>
-      <c r="G29" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H29" s="8" t="s">
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J29" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="27"/>
+    <row r="30" spans="1:10">
+      <c r="A30" s="34"/>
       <c r="B30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="18"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H30" s="8" t="s">
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.25">
+    <row r="31" spans="1:10" ht="14.25">
       <c r="A31" s="15"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="17"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="1:8" ht="14.25">
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.25">
       <c r="A32" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="18"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H32" s="8" t="s">
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.25">
+    <row r="33" spans="1:10" ht="14.25">
       <c r="A33" s="15"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="17"/>
+      <c r="E33" s="10"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="25" t="s">
-        <v>78</v>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="32" t="s">
+        <v>76</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="8" t="s">
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="33"/>
+      <c r="B35" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H34" s="8" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="26"/>
-      <c r="B35" s="6" t="s">
+      <c r="E35" s="8"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J35" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="8" t="s">
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="33"/>
+      <c r="B36" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35" s="8" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J36" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="26"/>
-      <c r="B36" s="6" t="s">
+    <row r="37" spans="1:10">
+      <c r="A37" s="33"/>
+      <c r="B37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" s="8" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="26"/>
-      <c r="B37" s="6" t="s">
+      <c r="E37" s="8"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="34"/>
+      <c r="B38" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="6"/>
+      <c r="D38" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="27"/>
-      <c r="B38" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="18"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="18"/>
-      <c r="G38" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H38" s="8"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J38" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="G1:G38"/>
-  <sortState ref="C2:E31">
-    <sortCondition ref="C2"/>
+  <autoFilter ref="I1:I38"/>
+  <sortState ref="D2:F31">
+    <sortCondition ref="D2"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="A25:A30"/>
@@ -2355,8 +2493,13 @@
     <mergeCell ref="A12:A18"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/documents/2014 TI公司推荐使用模拟器件清单.xlsx
+++ b/documents/2014 TI公司推荐使用模拟器件清单.xlsx
@@ -1373,6 +1373,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1389,10 +1457,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="494949"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F5F5F5"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1674,7 +1742,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1755,7 +1823,7 @@
         <v>86</v>
       </c>
       <c r="F3" s="18">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G3" s="18">
         <v>20</v>
@@ -1853,7 +1921,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7" s="18">
         <v>6</v>
@@ -2057,7 +2125,7 @@
         <v>89</v>
       </c>
       <c r="F17" s="20">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G17" s="20">
         <v>20</v>
@@ -2165,7 +2233,7 @@
         <v>92</v>
       </c>
       <c r="F22" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22" s="22">
         <v>4</v>
